--- a/Manual Testing Classwork.xlsx
+++ b/Manual Testing Classwork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7194A3E-2B8D-4D69-AA2C-171BEF8C9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB706A4C-AE81-46A2-A3A5-82C57C74F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67D48861-FA4C-4910-8AE0-C08A58287E18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Project Name:</t>
   </si>
@@ -153,6 +153,60 @@
   <si>
     <t>No
 Comments</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_002</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_003</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_004</t>
+  </si>
+  <si>
+    <t>Enter an invalid username and a valid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter valid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>Username: xxxx@erp.com
+Password: P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Still remaining on the Login Page</t>
+  </si>
+  <si>
+    <t>A popup message box to show an error message "Invalid Username/Password"</t>
+  </si>
+  <si>
+    <t>Messagebox got displayed</t>
+  </si>
+  <si>
+    <t>Enter an invalid username and an invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter invalid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>Username: xxxxn@erp.com
+Password: xxxxxx</t>
+  </si>
+  <si>
+    <t>Enter a valid username and an invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter valid username
+2. Enter invalid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>Username: admin@erp.com
+Password: xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -162,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy\ ddd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -170,16 +224,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -188,53 +296,235 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,17 +860,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C73BA7-94EA-442F-ADDF-5BE6D442D755}">
-  <dimension ref="A3:N16"/>
+  <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
@@ -590,192 +880,278 @@
     <col min="14" max="14" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>45320</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>45379</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="18">
         <v>45327</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="13">
+        <v>45328</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="18">
+        <v>45329</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="13">
+        <v>45330</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
